--- a/EC1-ECG_Analysis/ecg_oversampling/safetyArtist/SMOTE Results/SMOTE_cc40.xlsx
+++ b/EC1-ECG_Analysis/ecg_oversampling/safetyArtist/SMOTE Results/SMOTE_cc40.xlsx
@@ -250,9 +250,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -263,6 +260,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -564,11 +564,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:AN465"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
-      <selection activeCell="AJ466" sqref="AJ466"/>
+    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
+      <selection activeCell="AN1" sqref="X1:AN1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -718,7 +717,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:40" hidden="1">
+    <row r="2" spans="1:40">
       <c r="A2">
         <v>81133</v>
       </c>
@@ -844,7 +843,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:40" hidden="1">
+    <row r="3" spans="1:40">
       <c r="A3">
         <v>81138</v>
       </c>
@@ -970,7 +969,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:40" hidden="1">
+    <row r="4" spans="1:40">
       <c r="A4">
         <v>81139</v>
       </c>
@@ -1096,7 +1095,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:40" hidden="1">
+    <row r="5" spans="1:40">
       <c r="A5">
         <v>81152</v>
       </c>
@@ -1222,7 +1221,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:40" hidden="1">
+    <row r="6" spans="1:40">
       <c r="A6">
         <v>81187</v>
       </c>
@@ -1348,7 +1347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:40" hidden="1">
+    <row r="7" spans="1:40">
       <c r="A7">
         <v>81206</v>
       </c>
@@ -1468,7 +1467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:40" hidden="1">
+    <row r="8" spans="1:40">
       <c r="A8">
         <v>81241</v>
       </c>
@@ -1588,7 +1587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:40" hidden="1">
+    <row r="9" spans="1:40">
       <c r="A9">
         <v>81246</v>
       </c>
@@ -1707,13 +1706,13 @@
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="AL9" s="6" t="s">
+      <c r="AL9" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="AM9" s="6"/>
-      <c r="AN9" s="6"/>
+      <c r="AM9" s="10"/>
+      <c r="AN9" s="10"/>
     </row>
-    <row r="10" spans="1:40" hidden="1">
+    <row r="10" spans="1:40">
       <c r="A10">
         <v>81293</v>
       </c>
@@ -1832,17 +1831,17 @@
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="AL10" s="7" t="s">
+      <c r="AL10" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="AM10" s="7" t="s">
+      <c r="AM10" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="AN10" s="7" t="s">
+      <c r="AN10" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:40" hidden="1">
+    <row r="11" spans="1:40">
       <c r="A11">
         <v>81299</v>
       </c>
@@ -1968,12 +1967,12 @@
         <f>COUNTIFS(AJ:AJ, AL11)</f>
         <v>0</v>
       </c>
-      <c r="AN11" s="8">
-        <f>AM11/(SUM(AM$11:AM$37))</f>
+      <c r="AN11" s="7">
+        <f>AM11/(SUM(AM$11:AM$38))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:40" hidden="1">
+    <row r="12" spans="1:40">
       <c r="A12">
         <v>81300</v>
       </c>
@@ -2096,15 +2095,15 @@
         <v>1</v>
       </c>
       <c r="AM12" s="5">
-        <f t="shared" ref="AM12:AM37" si="10">COUNTIFS(AJ:AJ, AL12)</f>
+        <f t="shared" ref="AM12:AM38" si="10">COUNTIFS(AJ:AJ, AL12)</f>
         <v>463</v>
       </c>
-      <c r="AN12" s="8">
-        <f t="shared" ref="AN12:AN37" si="11">AM12/(SUM(AM$11:AM$37))</f>
+      <c r="AN12" s="7">
+        <f t="shared" ref="AN12:AN38" si="11">AM12/(SUM(AM$11:AM$38))</f>
         <v>0.99784482758620685</v>
       </c>
     </row>
-    <row r="13" spans="1:40" hidden="1">
+    <row r="13" spans="1:40">
       <c r="A13">
         <v>81324</v>
       </c>
@@ -2230,12 +2229,12 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN13" s="8">
+      <c r="AN13" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:40" hidden="1">
+    <row r="14" spans="1:40">
       <c r="A14">
         <v>81350</v>
       </c>
@@ -2361,12 +2360,12 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN14" s="8">
+      <c r="AN14" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:40" hidden="1">
+    <row r="15" spans="1:40">
       <c r="A15">
         <v>81376</v>
       </c>
@@ -2492,12 +2491,12 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN15" s="8">
+      <c r="AN15" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:40" hidden="1">
+    <row r="16" spans="1:40">
       <c r="A16">
         <v>81377</v>
       </c>
@@ -2623,12 +2622,12 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN16" s="8">
+      <c r="AN16" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:40" hidden="1">
+    <row r="17" spans="1:40">
       <c r="A17">
         <v>81401</v>
       </c>
@@ -2754,12 +2753,12 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN17" s="8">
+      <c r="AN17" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:40" hidden="1">
+    <row r="18" spans="1:40">
       <c r="A18">
         <v>81407</v>
       </c>
@@ -2885,12 +2884,12 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN18" s="8">
+      <c r="AN18" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:40" hidden="1">
+    <row r="19" spans="1:40">
       <c r="A19">
         <v>81414</v>
       </c>
@@ -3016,12 +3015,12 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN19" s="8">
+      <c r="AN19" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:40" hidden="1">
+    <row r="20" spans="1:40">
       <c r="A20">
         <v>81427</v>
       </c>
@@ -3147,12 +3146,12 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN20" s="8">
+      <c r="AN20" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:40" hidden="1">
+    <row r="21" spans="1:40">
       <c r="A21">
         <v>81438</v>
       </c>
@@ -3278,12 +3277,12 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="AN21" s="8">
+      <c r="AN21" s="7">
         <f t="shared" si="11"/>
         <v>2.1551724137931034E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:40" hidden="1">
+    <row r="22" spans="1:40">
       <c r="A22">
         <v>81472</v>
       </c>
@@ -3409,12 +3408,12 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN22" s="8">
+      <c r="AN22" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:40" hidden="1">
+    <row r="23" spans="1:40">
       <c r="A23">
         <v>81483</v>
       </c>
@@ -3540,12 +3539,12 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN23" s="8">
+      <c r="AN23" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:40" hidden="1">
+    <row r="24" spans="1:40">
       <c r="A24">
         <v>81487</v>
       </c>
@@ -3671,12 +3670,12 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN24" s="8">
+      <c r="AN24" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:40" hidden="1">
+    <row r="25" spans="1:40">
       <c r="A25">
         <v>81505</v>
       </c>
@@ -3802,12 +3801,12 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN25" s="8">
+      <c r="AN25" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:40" hidden="1">
+    <row r="26" spans="1:40">
       <c r="A26">
         <v>81532</v>
       </c>
@@ -3933,12 +3932,12 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN26" s="8">
+      <c r="AN26" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:40" hidden="1">
+    <row r="27" spans="1:40">
       <c r="A27">
         <v>81538</v>
       </c>
@@ -4064,12 +4063,12 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN27" s="8">
+      <c r="AN27" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:40" hidden="1">
+    <row r="28" spans="1:40">
       <c r="A28">
         <v>81559</v>
       </c>
@@ -4195,12 +4194,12 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN28" s="8">
+      <c r="AN28" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:40" hidden="1">
+    <row r="29" spans="1:40">
       <c r="A29">
         <v>81581</v>
       </c>
@@ -4326,12 +4325,12 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN29" s="8">
+      <c r="AN29" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:40" hidden="1">
+    <row r="30" spans="1:40">
       <c r="A30">
         <v>81637</v>
       </c>
@@ -4457,12 +4456,12 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN30" s="8">
+      <c r="AN30" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:40" hidden="1">
+    <row r="31" spans="1:40">
       <c r="A31">
         <v>81649</v>
       </c>
@@ -4588,12 +4587,12 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN31" s="8">
+      <c r="AN31" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:40" hidden="1">
+    <row r="32" spans="1:40">
       <c r="A32">
         <v>81658</v>
       </c>
@@ -4719,12 +4718,12 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN32" s="8">
+      <c r="AN32" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:40" hidden="1">
+    <row r="33" spans="1:40">
       <c r="A33">
         <v>81662</v>
       </c>
@@ -4843,19 +4842,19 @@
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="AL33" s="9">
+      <c r="AL33" s="8">
         <v>22</v>
       </c>
-      <c r="AM33" s="9">
+      <c r="AM33" s="8">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN33" s="8">
+      <c r="AN33" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:40" hidden="1">
+    <row r="34" spans="1:40">
       <c r="A34">
         <v>81669</v>
       </c>
@@ -4974,14 +4973,14 @@
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="AL34" s="9">
+      <c r="AL34" s="8">
         <v>23</v>
       </c>
-      <c r="AM34" s="9">
+      <c r="AM34" s="8">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN34" s="8">
+      <c r="AN34" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -5097,25 +5096,25 @@
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="AI35" s="10" t="s">
+      <c r="AI35" s="9" t="s">
         <v>41</v>
       </c>
       <c r="AJ35" s="4">
         <v>10</v>
       </c>
-      <c r="AL35" s="9">
+      <c r="AL35" s="8">
         <v>24</v>
       </c>
-      <c r="AM35" s="9">
+      <c r="AM35" s="8">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN35" s="8">
+      <c r="AN35" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:40" hidden="1">
+    <row r="36" spans="1:40">
       <c r="A36">
         <v>81700</v>
       </c>
@@ -5234,19 +5233,19 @@
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="AL36" s="9">
+      <c r="AL36" s="8">
         <v>25</v>
       </c>
-      <c r="AM36" s="9">
+      <c r="AM36" s="8">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN36" s="8">
+      <c r="AN36" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:40" hidden="1">
+    <row r="37" spans="1:40">
       <c r="A37">
         <v>81704</v>
       </c>
@@ -5365,19 +5364,19 @@
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="AL37" s="9">
+      <c r="AL37" s="8">
         <v>26</v>
       </c>
-      <c r="AM37" s="9">
+      <c r="AM37" s="8">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN37" s="8">
+      <c r="AN37" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:40" hidden="1">
+    <row r="38" spans="1:40">
       <c r="A38">
         <v>81710</v>
       </c>
@@ -5496,8 +5495,19 @@
         <f t="shared" ref="AJ38:AJ101" si="25">IF(AH38 = 1, VLOOKUP(AI38, $AL$2:$AM$6, 2, FALSE), "Verificar Manualmente")</f>
         <v>1</v>
       </c>
+      <c r="AL38" s="8">
+        <v>27</v>
+      </c>
+      <c r="AM38" s="8">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AN38" s="7">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="39" spans="1:40" hidden="1">
+    <row r="39" spans="1:40">
       <c r="A39">
         <v>81743</v>
       </c>
@@ -5617,7 +5627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:40" hidden="1">
+    <row r="40" spans="1:40">
       <c r="A40">
         <v>81778</v>
       </c>
@@ -5737,7 +5747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:40" hidden="1">
+    <row r="41" spans="1:40">
       <c r="A41">
         <v>81782</v>
       </c>
@@ -5857,7 +5867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:40" hidden="1">
+    <row r="42" spans="1:40">
       <c r="A42">
         <v>81796</v>
       </c>
@@ -5977,7 +5987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:40" hidden="1">
+    <row r="43" spans="1:40">
       <c r="A43">
         <v>81797</v>
       </c>
@@ -6097,7 +6107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:40" hidden="1">
+    <row r="44" spans="1:40">
       <c r="A44">
         <v>81806</v>
       </c>
@@ -6217,7 +6227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:40" hidden="1">
+    <row r="45" spans="1:40">
       <c r="A45">
         <v>81822</v>
       </c>
@@ -6337,7 +6347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:40" hidden="1">
+    <row r="46" spans="1:40">
       <c r="A46">
         <v>81834</v>
       </c>
@@ -6457,7 +6467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:40" hidden="1">
+    <row r="47" spans="1:40">
       <c r="A47">
         <v>81845</v>
       </c>
@@ -6577,7 +6587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:40" hidden="1">
+    <row r="48" spans="1:40">
       <c r="A48">
         <v>81846</v>
       </c>
@@ -6697,7 +6707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:36" hidden="1">
+    <row r="49" spans="1:36">
       <c r="A49">
         <v>81851</v>
       </c>
@@ -6817,7 +6827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:36" hidden="1">
+    <row r="50" spans="1:36">
       <c r="A50">
         <v>81887</v>
       </c>
@@ -6937,7 +6947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:36" hidden="1">
+    <row r="51" spans="1:36">
       <c r="A51">
         <v>81899</v>
       </c>
@@ -7057,7 +7067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:36" hidden="1">
+    <row r="52" spans="1:36">
       <c r="A52">
         <v>81900</v>
       </c>
@@ -7177,7 +7187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:36" hidden="1">
+    <row r="53" spans="1:36">
       <c r="A53">
         <v>81956</v>
       </c>
@@ -7297,7 +7307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:36" hidden="1">
+    <row r="54" spans="1:36">
       <c r="A54">
         <v>81982</v>
       </c>
@@ -7417,7 +7427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:36" hidden="1">
+    <row r="55" spans="1:36">
       <c r="A55">
         <v>81987</v>
       </c>
@@ -7537,7 +7547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:36" hidden="1">
+    <row r="56" spans="1:36">
       <c r="A56">
         <v>81990</v>
       </c>
@@ -7657,7 +7667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:36" hidden="1">
+    <row r="57" spans="1:36">
       <c r="A57">
         <v>81991</v>
       </c>
@@ -7777,7 +7787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:36" hidden="1">
+    <row r="58" spans="1:36">
       <c r="A58">
         <v>81994</v>
       </c>
@@ -7897,7 +7907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:36" hidden="1">
+    <row r="59" spans="1:36">
       <c r="A59">
         <v>82016</v>
       </c>
@@ -8017,7 +8027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:36" hidden="1">
+    <row r="60" spans="1:36">
       <c r="A60">
         <v>82072</v>
       </c>
@@ -8137,7 +8147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:36" hidden="1">
+    <row r="61" spans="1:36">
       <c r="A61">
         <v>82073</v>
       </c>
@@ -8257,7 +8267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:36" hidden="1">
+    <row r="62" spans="1:36">
       <c r="A62">
         <v>82089</v>
       </c>
@@ -8377,7 +8387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:36" hidden="1">
+    <row r="63" spans="1:36">
       <c r="A63">
         <v>82092</v>
       </c>
@@ -8497,7 +8507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:36" hidden="1">
+    <row r="64" spans="1:36">
       <c r="A64">
         <v>82099</v>
       </c>
@@ -8617,7 +8627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:36" hidden="1">
+    <row r="65" spans="1:36">
       <c r="A65">
         <v>82144</v>
       </c>
@@ -8737,7 +8747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:36" hidden="1">
+    <row r="66" spans="1:36">
       <c r="A66">
         <v>82145</v>
       </c>
@@ -8857,7 +8867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:36" hidden="1">
+    <row r="67" spans="1:36">
       <c r="A67">
         <v>82154</v>
       </c>
@@ -8977,7 +8987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:36" hidden="1">
+    <row r="68" spans="1:36">
       <c r="A68">
         <v>82169</v>
       </c>
@@ -9097,7 +9107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:36" hidden="1">
+    <row r="69" spans="1:36">
       <c r="A69">
         <v>82197</v>
       </c>
@@ -9217,7 +9227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:36" hidden="1">
+    <row r="70" spans="1:36">
       <c r="A70">
         <v>82202</v>
       </c>
@@ -9337,7 +9347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:36" hidden="1">
+    <row r="71" spans="1:36">
       <c r="A71">
         <v>82203</v>
       </c>
@@ -9457,7 +9467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:36" hidden="1">
+    <row r="72" spans="1:36">
       <c r="A72">
         <v>82211</v>
       </c>
@@ -9577,7 +9587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:36" hidden="1">
+    <row r="73" spans="1:36">
       <c r="A73">
         <v>82212</v>
       </c>
@@ -9697,7 +9707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:36" hidden="1">
+    <row r="74" spans="1:36">
       <c r="A74">
         <v>82221</v>
       </c>
@@ -9817,7 +9827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:36" hidden="1">
+    <row r="75" spans="1:36">
       <c r="A75">
         <v>82230</v>
       </c>
@@ -9937,7 +9947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:36" hidden="1">
+    <row r="76" spans="1:36">
       <c r="A76">
         <v>82233</v>
       </c>
@@ -10057,7 +10067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:36" hidden="1">
+    <row r="77" spans="1:36">
       <c r="A77">
         <v>82250</v>
       </c>
@@ -10177,7 +10187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:36" hidden="1">
+    <row r="78" spans="1:36">
       <c r="A78">
         <v>82271</v>
       </c>
@@ -10297,7 +10307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:36" hidden="1">
+    <row r="79" spans="1:36">
       <c r="A79">
         <v>82299</v>
       </c>
@@ -10417,7 +10427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:36" hidden="1">
+    <row r="80" spans="1:36">
       <c r="A80">
         <v>82319</v>
       </c>
@@ -10537,7 +10547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:36" hidden="1">
+    <row r="81" spans="1:36">
       <c r="A81">
         <v>82324</v>
       </c>
@@ -10657,7 +10667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:36" hidden="1">
+    <row r="82" spans="1:36">
       <c r="A82">
         <v>82331</v>
       </c>
@@ -10777,7 +10787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:36" hidden="1">
+    <row r="83" spans="1:36">
       <c r="A83">
         <v>82336</v>
       </c>
@@ -10897,7 +10907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:36" hidden="1">
+    <row r="84" spans="1:36">
       <c r="A84">
         <v>82355</v>
       </c>
@@ -11017,7 +11027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:36" hidden="1">
+    <row r="85" spans="1:36">
       <c r="A85">
         <v>82367</v>
       </c>
@@ -11137,7 +11147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:36" hidden="1">
+    <row r="86" spans="1:36">
       <c r="A86">
         <v>82382</v>
       </c>
@@ -11257,7 +11267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:36" hidden="1">
+    <row r="87" spans="1:36">
       <c r="A87">
         <v>82385</v>
       </c>
@@ -11377,7 +11387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:36" hidden="1">
+    <row r="88" spans="1:36">
       <c r="A88">
         <v>82386</v>
       </c>
@@ -11497,7 +11507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:36" hidden="1">
+    <row r="89" spans="1:36">
       <c r="A89">
         <v>82387</v>
       </c>
@@ -11617,7 +11627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:36" hidden="1">
+    <row r="90" spans="1:36">
       <c r="A90">
         <v>82404</v>
       </c>
@@ -11737,7 +11747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:36" hidden="1">
+    <row r="91" spans="1:36">
       <c r="A91">
         <v>82415</v>
       </c>
@@ -11857,7 +11867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:36" hidden="1">
+    <row r="92" spans="1:36">
       <c r="A92">
         <v>82465</v>
       </c>
@@ -11977,7 +11987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:36" hidden="1">
+    <row r="93" spans="1:36">
       <c r="A93">
         <v>82467</v>
       </c>
@@ -12097,7 +12107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:36" hidden="1">
+    <row r="94" spans="1:36">
       <c r="A94">
         <v>82473</v>
       </c>
@@ -12217,7 +12227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:36" hidden="1">
+    <row r="95" spans="1:36">
       <c r="A95">
         <v>82489</v>
       </c>
@@ -12337,7 +12347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:36" hidden="1">
+    <row r="96" spans="1:36">
       <c r="A96">
         <v>82494</v>
       </c>
@@ -12457,7 +12467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:36" hidden="1">
+    <row r="97" spans="1:36">
       <c r="A97">
         <v>82513</v>
       </c>
@@ -12577,7 +12587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:36" hidden="1">
+    <row r="98" spans="1:36">
       <c r="A98">
         <v>82533</v>
       </c>
@@ -12697,7 +12707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:36" hidden="1">
+    <row r="99" spans="1:36">
       <c r="A99">
         <v>82540</v>
       </c>
@@ -12817,7 +12827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:36" hidden="1">
+    <row r="100" spans="1:36">
       <c r="A100">
         <v>82642</v>
       </c>
@@ -12937,7 +12947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:36" hidden="1">
+    <row r="101" spans="1:36">
       <c r="A101">
         <v>82656</v>
       </c>
@@ -13057,7 +13067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:36" hidden="1">
+    <row r="102" spans="1:36">
       <c r="A102">
         <v>82665</v>
       </c>
@@ -13177,7 +13187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:36" hidden="1">
+    <row r="103" spans="1:36">
       <c r="A103">
         <v>82673</v>
       </c>
@@ -13297,7 +13307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:36" hidden="1">
+    <row r="104" spans="1:36">
       <c r="A104">
         <v>82677</v>
       </c>
@@ -13417,7 +13427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:36" hidden="1">
+    <row r="105" spans="1:36">
       <c r="A105">
         <v>82686</v>
       </c>
@@ -13537,7 +13547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:36" hidden="1">
+    <row r="106" spans="1:36">
       <c r="A106">
         <v>82712</v>
       </c>
@@ -13657,7 +13667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:36" hidden="1">
+    <row r="107" spans="1:36">
       <c r="A107">
         <v>82732</v>
       </c>
@@ -13777,7 +13787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:36" hidden="1">
+    <row r="108" spans="1:36">
       <c r="A108">
         <v>82736</v>
       </c>
@@ -13897,7 +13907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:36" hidden="1">
+    <row r="109" spans="1:36">
       <c r="A109">
         <v>82746</v>
       </c>
@@ -14017,7 +14027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:36" hidden="1">
+    <row r="110" spans="1:36">
       <c r="A110">
         <v>82757</v>
       </c>
@@ -14137,7 +14147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:36" hidden="1">
+    <row r="111" spans="1:36">
       <c r="A111">
         <v>82766</v>
       </c>
@@ -14257,7 +14267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:36" hidden="1">
+    <row r="112" spans="1:36">
       <c r="A112">
         <v>82781</v>
       </c>
@@ -14377,7 +14387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:36" hidden="1">
+    <row r="113" spans="1:36">
       <c r="A113">
         <v>82784</v>
       </c>
@@ -14497,7 +14507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:36" hidden="1">
+    <row r="114" spans="1:36">
       <c r="A114">
         <v>82786</v>
       </c>
@@ -14617,7 +14627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:36" hidden="1">
+    <row r="115" spans="1:36">
       <c r="A115">
         <v>82791</v>
       </c>
@@ -14737,7 +14747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:36" hidden="1">
+    <row r="116" spans="1:36">
       <c r="A116">
         <v>82810</v>
       </c>
@@ -14857,7 +14867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:36" hidden="1">
+    <row r="117" spans="1:36">
       <c r="A117">
         <v>82838</v>
       </c>
@@ -14977,7 +14987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:36" hidden="1">
+    <row r="118" spans="1:36">
       <c r="A118">
         <v>82845</v>
       </c>
@@ -15097,7 +15107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:36" hidden="1">
+    <row r="119" spans="1:36">
       <c r="A119">
         <v>82882</v>
       </c>
@@ -15217,7 +15227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:36" hidden="1">
+    <row r="120" spans="1:36">
       <c r="A120">
         <v>82893</v>
       </c>
@@ -15337,7 +15347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:36" hidden="1">
+    <row r="121" spans="1:36">
       <c r="A121">
         <v>82895</v>
       </c>
@@ -15457,7 +15467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:36" hidden="1">
+    <row r="122" spans="1:36">
       <c r="A122">
         <v>82927</v>
       </c>
@@ -15577,7 +15587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:36" hidden="1">
+    <row r="123" spans="1:36">
       <c r="A123">
         <v>82935</v>
       </c>
@@ -15697,7 +15707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:36" hidden="1">
+    <row r="124" spans="1:36">
       <c r="A124">
         <v>82946</v>
       </c>
@@ -15817,7 +15827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:36" hidden="1">
+    <row r="125" spans="1:36">
       <c r="A125">
         <v>83000</v>
       </c>
@@ -15937,7 +15947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:36" hidden="1">
+    <row r="126" spans="1:36">
       <c r="A126">
         <v>83028</v>
       </c>
@@ -16057,7 +16067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:36" hidden="1">
+    <row r="127" spans="1:36">
       <c r="A127">
         <v>83057</v>
       </c>
@@ -16177,7 +16187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:36" hidden="1">
+    <row r="128" spans="1:36">
       <c r="A128">
         <v>83058</v>
       </c>
@@ -16297,7 +16307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:36" hidden="1">
+    <row r="129" spans="1:36">
       <c r="A129">
         <v>83061</v>
       </c>
@@ -16417,7 +16427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:36" hidden="1">
+    <row r="130" spans="1:36">
       <c r="A130">
         <v>83095</v>
       </c>
@@ -16537,7 +16547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:36" hidden="1">
+    <row r="131" spans="1:36">
       <c r="A131">
         <v>83144</v>
       </c>
@@ -16657,7 +16667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:36" hidden="1">
+    <row r="132" spans="1:36">
       <c r="A132">
         <v>83164</v>
       </c>
@@ -16777,7 +16787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:36" hidden="1">
+    <row r="133" spans="1:36">
       <c r="A133">
         <v>83184</v>
       </c>
@@ -16897,7 +16907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:36" hidden="1">
+    <row r="134" spans="1:36">
       <c r="A134">
         <v>83217</v>
       </c>
@@ -17017,7 +17027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:36" hidden="1">
+    <row r="135" spans="1:36">
       <c r="A135">
         <v>83243</v>
       </c>
@@ -17137,7 +17147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:36" hidden="1">
+    <row r="136" spans="1:36">
       <c r="A136">
         <v>83247</v>
       </c>
@@ -17257,7 +17267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:36" hidden="1">
+    <row r="137" spans="1:36">
       <c r="A137">
         <v>83256</v>
       </c>
@@ -17377,7 +17387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:36" hidden="1">
+    <row r="138" spans="1:36">
       <c r="A138">
         <v>83268</v>
       </c>
@@ -17497,7 +17507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:36" hidden="1">
+    <row r="139" spans="1:36">
       <c r="A139">
         <v>83284</v>
       </c>
@@ -17617,7 +17627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:36" hidden="1">
+    <row r="140" spans="1:36">
       <c r="A140">
         <v>83315</v>
       </c>
@@ -17737,7 +17747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:36" hidden="1">
+    <row r="141" spans="1:36">
       <c r="A141">
         <v>83366</v>
       </c>
@@ -17857,7 +17867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:36" hidden="1">
+    <row r="142" spans="1:36">
       <c r="A142">
         <v>83370</v>
       </c>
@@ -17977,7 +17987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:36" hidden="1">
+    <row r="143" spans="1:36">
       <c r="A143">
         <v>83385</v>
       </c>
@@ -18097,7 +18107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:36" hidden="1">
+    <row r="144" spans="1:36">
       <c r="A144">
         <v>83391</v>
       </c>
@@ -18217,7 +18227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:36" hidden="1">
+    <row r="145" spans="1:36">
       <c r="A145">
         <v>83417</v>
       </c>
@@ -18337,7 +18347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:36" hidden="1">
+    <row r="146" spans="1:36">
       <c r="A146">
         <v>83440</v>
       </c>
@@ -18457,7 +18467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:36" hidden="1">
+    <row r="147" spans="1:36">
       <c r="A147">
         <v>83468</v>
       </c>
@@ -18577,7 +18587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:36" hidden="1">
+    <row r="148" spans="1:36">
       <c r="A148">
         <v>83475</v>
       </c>
@@ -18697,7 +18707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:36" hidden="1">
+    <row r="149" spans="1:36">
       <c r="A149">
         <v>83543</v>
       </c>
@@ -18817,7 +18827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:36" hidden="1">
+    <row r="150" spans="1:36">
       <c r="A150">
         <v>83546</v>
       </c>
@@ -18937,7 +18947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:36" hidden="1">
+    <row r="151" spans="1:36">
       <c r="A151">
         <v>83573</v>
       </c>
@@ -19057,7 +19067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:36" hidden="1">
+    <row r="152" spans="1:36">
       <c r="A152">
         <v>83589</v>
       </c>
@@ -19177,7 +19187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:36" hidden="1">
+    <row r="153" spans="1:36">
       <c r="A153">
         <v>83599</v>
       </c>
@@ -19297,7 +19307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:36" hidden="1">
+    <row r="154" spans="1:36">
       <c r="A154">
         <v>83608</v>
       </c>
@@ -19417,7 +19427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:36" hidden="1">
+    <row r="155" spans="1:36">
       <c r="A155">
         <v>83647</v>
       </c>
@@ -19537,7 +19547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:36" hidden="1">
+    <row r="156" spans="1:36">
       <c r="A156">
         <v>83653</v>
       </c>
@@ -19657,7 +19667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:36" hidden="1">
+    <row r="157" spans="1:36">
       <c r="A157">
         <v>83662</v>
       </c>
@@ -19777,7 +19787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:36" hidden="1">
+    <row r="158" spans="1:36">
       <c r="A158">
         <v>83684</v>
       </c>
@@ -19897,7 +19907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:36" hidden="1">
+    <row r="159" spans="1:36">
       <c r="A159">
         <v>83689</v>
       </c>
@@ -20017,7 +20027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:36" hidden="1">
+    <row r="160" spans="1:36">
       <c r="A160">
         <v>83699</v>
       </c>
@@ -20137,7 +20147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:36" hidden="1">
+    <row r="161" spans="1:36">
       <c r="A161">
         <v>83730</v>
       </c>
@@ -20257,7 +20267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:36" hidden="1">
+    <row r="162" spans="1:36">
       <c r="A162">
         <v>83764</v>
       </c>
@@ -20377,7 +20387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:36" hidden="1">
+    <row r="163" spans="1:36">
       <c r="A163">
         <v>83836</v>
       </c>
@@ -20497,7 +20507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:36" hidden="1">
+    <row r="164" spans="1:36">
       <c r="A164">
         <v>83839</v>
       </c>
@@ -20617,7 +20627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:36" hidden="1">
+    <row r="165" spans="1:36">
       <c r="A165">
         <v>83841</v>
       </c>
@@ -20737,7 +20747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:36" hidden="1">
+    <row r="166" spans="1:36">
       <c r="A166">
         <v>83851</v>
       </c>
@@ -20857,7 +20867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:36" hidden="1">
+    <row r="167" spans="1:36">
       <c r="A167">
         <v>83856</v>
       </c>
@@ -20977,7 +20987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:36" hidden="1">
+    <row r="168" spans="1:36">
       <c r="A168">
         <v>83861</v>
       </c>
@@ -21097,7 +21107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:36" hidden="1">
+    <row r="169" spans="1:36">
       <c r="A169">
         <v>83917</v>
       </c>
@@ -21217,7 +21227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:36" hidden="1">
+    <row r="170" spans="1:36">
       <c r="A170">
         <v>83949</v>
       </c>
@@ -21337,7 +21347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:36" hidden="1">
+    <row r="171" spans="1:36">
       <c r="A171">
         <v>83991</v>
       </c>
@@ -21457,7 +21467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:36" hidden="1">
+    <row r="172" spans="1:36">
       <c r="A172">
         <v>84014</v>
       </c>
@@ -21577,7 +21587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:36" hidden="1">
+    <row r="173" spans="1:36">
       <c r="A173">
         <v>84029</v>
       </c>
@@ -21697,7 +21707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:36" hidden="1">
+    <row r="174" spans="1:36">
       <c r="A174">
         <v>84058</v>
       </c>
@@ -21817,7 +21827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:36" hidden="1">
+    <row r="175" spans="1:36">
       <c r="A175">
         <v>84085</v>
       </c>
@@ -21937,7 +21947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:36" hidden="1">
+    <row r="176" spans="1:36">
       <c r="A176">
         <v>84096</v>
       </c>
@@ -22057,7 +22067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:36" hidden="1">
+    <row r="177" spans="1:36">
       <c r="A177">
         <v>84098</v>
       </c>
@@ -22177,7 +22187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:36" hidden="1">
+    <row r="178" spans="1:36">
       <c r="A178">
         <v>84121</v>
       </c>
@@ -22297,7 +22307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:36" hidden="1">
+    <row r="179" spans="1:36">
       <c r="A179">
         <v>84125</v>
       </c>
@@ -22417,7 +22427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:36" hidden="1">
+    <row r="180" spans="1:36">
       <c r="A180">
         <v>84129</v>
       </c>
@@ -22537,7 +22547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:36" hidden="1">
+    <row r="181" spans="1:36">
       <c r="A181">
         <v>84165</v>
       </c>
@@ -22657,7 +22667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:36" hidden="1">
+    <row r="182" spans="1:36">
       <c r="A182">
         <v>84194</v>
       </c>
@@ -22777,7 +22787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:36" hidden="1">
+    <row r="183" spans="1:36">
       <c r="A183">
         <v>84198</v>
       </c>
@@ -22897,7 +22907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:36" hidden="1">
+    <row r="184" spans="1:36">
       <c r="A184">
         <v>84217</v>
       </c>
@@ -23017,7 +23027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:36" hidden="1">
+    <row r="185" spans="1:36">
       <c r="A185">
         <v>84223</v>
       </c>
@@ -23137,7 +23147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:36" hidden="1">
+    <row r="186" spans="1:36">
       <c r="A186">
         <v>84237</v>
       </c>
@@ -23257,7 +23267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:36" hidden="1">
+    <row r="187" spans="1:36">
       <c r="A187">
         <v>84281</v>
       </c>
@@ -23377,7 +23387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:36" hidden="1">
+    <row r="188" spans="1:36">
       <c r="A188">
         <v>84330</v>
       </c>
@@ -23497,7 +23507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:36" hidden="1">
+    <row r="189" spans="1:36">
       <c r="A189">
         <v>84358</v>
       </c>
@@ -23617,7 +23627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:36" hidden="1">
+    <row r="190" spans="1:36">
       <c r="A190">
         <v>84364</v>
       </c>
@@ -23737,7 +23747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:36" hidden="1">
+    <row r="191" spans="1:36">
       <c r="A191">
         <v>84396</v>
       </c>
@@ -23857,7 +23867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:36" hidden="1">
+    <row r="192" spans="1:36">
       <c r="A192">
         <v>84402</v>
       </c>
@@ -23977,7 +23987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:36" hidden="1">
+    <row r="193" spans="1:36">
       <c r="A193">
         <v>84481</v>
       </c>
@@ -24097,7 +24107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:36" hidden="1">
+    <row r="194" spans="1:36">
       <c r="A194">
         <v>84511</v>
       </c>
@@ -24217,7 +24227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:36" hidden="1">
+    <row r="195" spans="1:36">
       <c r="A195">
         <v>84544</v>
       </c>
@@ -24337,7 +24347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:36" hidden="1">
+    <row r="196" spans="1:36">
       <c r="A196">
         <v>84557</v>
       </c>
@@ -24457,7 +24467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:36" hidden="1">
+    <row r="197" spans="1:36">
       <c r="A197">
         <v>84568</v>
       </c>
@@ -24577,7 +24587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:36" hidden="1">
+    <row r="198" spans="1:36">
       <c r="A198">
         <v>84570</v>
       </c>
@@ -24697,7 +24707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:36" hidden="1">
+    <row r="199" spans="1:36">
       <c r="A199">
         <v>84599</v>
       </c>
@@ -24817,7 +24827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:36" hidden="1">
+    <row r="200" spans="1:36">
       <c r="A200">
         <v>84611</v>
       </c>
@@ -24937,7 +24947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:36" hidden="1">
+    <row r="201" spans="1:36">
       <c r="A201">
         <v>84613</v>
       </c>
@@ -25057,7 +25067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:36" hidden="1">
+    <row r="202" spans="1:36">
       <c r="A202">
         <v>84614</v>
       </c>
@@ -25177,7 +25187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:36" hidden="1">
+    <row r="203" spans="1:36">
       <c r="A203">
         <v>84626</v>
       </c>
@@ -25297,7 +25307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:36" hidden="1">
+    <row r="204" spans="1:36">
       <c r="A204">
         <v>84654</v>
       </c>
@@ -25417,7 +25427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:36" hidden="1">
+    <row r="205" spans="1:36">
       <c r="A205">
         <v>84682</v>
       </c>
@@ -25537,7 +25547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:36" hidden="1">
+    <row r="206" spans="1:36">
       <c r="A206">
         <v>84690</v>
       </c>
@@ -25657,7 +25667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:36" hidden="1">
+    <row r="207" spans="1:36">
       <c r="A207">
         <v>84702</v>
       </c>
@@ -25777,7 +25787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:36" hidden="1">
+    <row r="208" spans="1:36">
       <c r="A208">
         <v>84719</v>
       </c>
@@ -25897,7 +25907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:36" hidden="1">
+    <row r="209" spans="1:36">
       <c r="A209">
         <v>84723</v>
       </c>
@@ -26017,7 +26027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:36" hidden="1">
+    <row r="210" spans="1:36">
       <c r="A210">
         <v>84744</v>
       </c>
@@ -26137,7 +26147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:36" hidden="1">
+    <row r="211" spans="1:36">
       <c r="A211">
         <v>84754</v>
       </c>
@@ -26257,7 +26267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:36" hidden="1">
+    <row r="212" spans="1:36">
       <c r="A212">
         <v>84769</v>
       </c>
@@ -26377,7 +26387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:36" hidden="1">
+    <row r="213" spans="1:36">
       <c r="A213">
         <v>84794</v>
       </c>
@@ -26497,7 +26507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:36" hidden="1">
+    <row r="214" spans="1:36">
       <c r="A214">
         <v>84800</v>
       </c>
@@ -26617,7 +26627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:36" hidden="1">
+    <row r="215" spans="1:36">
       <c r="A215">
         <v>84821</v>
       </c>
@@ -26737,7 +26747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:36" hidden="1">
+    <row r="216" spans="1:36">
       <c r="A216">
         <v>84835</v>
       </c>
@@ -26857,7 +26867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:36" hidden="1">
+    <row r="217" spans="1:36">
       <c r="A217">
         <v>84844</v>
       </c>
@@ -26977,7 +26987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:36" hidden="1">
+    <row r="218" spans="1:36">
       <c r="A218">
         <v>84853</v>
       </c>
@@ -27097,7 +27107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:36" hidden="1">
+    <row r="219" spans="1:36">
       <c r="A219">
         <v>84857</v>
       </c>
@@ -27217,7 +27227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:36" hidden="1">
+    <row r="220" spans="1:36">
       <c r="A220">
         <v>84876</v>
       </c>
@@ -27337,7 +27347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:36" hidden="1">
+    <row r="221" spans="1:36">
       <c r="A221">
         <v>84939</v>
       </c>
@@ -27457,7 +27467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:36" hidden="1">
+    <row r="222" spans="1:36">
       <c r="A222">
         <v>84967</v>
       </c>
@@ -27577,7 +27587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:36" hidden="1">
+    <row r="223" spans="1:36">
       <c r="A223">
         <v>84968</v>
       </c>
@@ -27697,7 +27707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:36" hidden="1">
+    <row r="224" spans="1:36">
       <c r="A224">
         <v>84977</v>
       </c>
@@ -27817,7 +27827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:36" hidden="1">
+    <row r="225" spans="1:36">
       <c r="A225">
         <v>85008</v>
       </c>
@@ -27937,7 +27947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:36" hidden="1">
+    <row r="226" spans="1:36">
       <c r="A226">
         <v>85035</v>
       </c>
@@ -28057,7 +28067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:36" hidden="1">
+    <row r="227" spans="1:36">
       <c r="A227">
         <v>85048</v>
       </c>
@@ -28177,7 +28187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:36" hidden="1">
+    <row r="228" spans="1:36">
       <c r="A228">
         <v>85122</v>
       </c>
@@ -28297,7 +28307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:36" hidden="1">
+    <row r="229" spans="1:36">
       <c r="A229">
         <v>85139</v>
       </c>
@@ -28417,7 +28427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:36" hidden="1">
+    <row r="230" spans="1:36">
       <c r="A230">
         <v>85144</v>
       </c>
@@ -28537,7 +28547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:36" hidden="1">
+    <row r="231" spans="1:36">
       <c r="A231">
         <v>85149</v>
       </c>
@@ -28657,7 +28667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:36" hidden="1">
+    <row r="232" spans="1:36">
       <c r="A232">
         <v>85150</v>
       </c>
@@ -28777,7 +28787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:36" hidden="1">
+    <row r="233" spans="1:36">
       <c r="A233">
         <v>85179</v>
       </c>
@@ -28897,7 +28907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:36" hidden="1">
+    <row r="234" spans="1:36">
       <c r="A234">
         <v>85180</v>
       </c>
@@ -29017,7 +29027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:36" hidden="1">
+    <row r="235" spans="1:36">
       <c r="A235">
         <v>85203</v>
       </c>
@@ -29137,7 +29147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:36" hidden="1">
+    <row r="236" spans="1:36">
       <c r="A236">
         <v>85222</v>
       </c>
@@ -29257,7 +29267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:36" hidden="1">
+    <row r="237" spans="1:36">
       <c r="A237">
         <v>85239</v>
       </c>
@@ -29377,7 +29387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:36" hidden="1">
+    <row r="238" spans="1:36">
       <c r="A238">
         <v>85257</v>
       </c>
@@ -29497,7 +29507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:36" hidden="1">
+    <row r="239" spans="1:36">
       <c r="A239">
         <v>85281</v>
       </c>
@@ -29617,7 +29627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:36" hidden="1">
+    <row r="240" spans="1:36">
       <c r="A240">
         <v>85335</v>
       </c>
@@ -29737,7 +29747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:36" hidden="1">
+    <row r="241" spans="1:36">
       <c r="A241">
         <v>85357</v>
       </c>
@@ -29857,7 +29867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:36" hidden="1">
+    <row r="242" spans="1:36">
       <c r="A242">
         <v>85381</v>
       </c>
@@ -29977,7 +29987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:36" hidden="1">
+    <row r="243" spans="1:36">
       <c r="A243">
         <v>85388</v>
       </c>
@@ -30097,7 +30107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:36" hidden="1">
+    <row r="244" spans="1:36">
       <c r="A244">
         <v>85416</v>
       </c>
@@ -30217,7 +30227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:36" hidden="1">
+    <row r="245" spans="1:36">
       <c r="A245">
         <v>85460</v>
       </c>
@@ -30337,7 +30347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:36" hidden="1">
+    <row r="246" spans="1:36">
       <c r="A246">
         <v>85470</v>
       </c>
@@ -30457,7 +30467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:36" hidden="1">
+    <row r="247" spans="1:36">
       <c r="A247">
         <v>85493</v>
       </c>
@@ -30577,7 +30587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:36" hidden="1">
+    <row r="248" spans="1:36">
       <c r="A248">
         <v>85514</v>
       </c>
@@ -30697,7 +30707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:36" hidden="1">
+    <row r="249" spans="1:36">
       <c r="A249">
         <v>85519</v>
       </c>
@@ -30817,7 +30827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:36" hidden="1">
+    <row r="250" spans="1:36">
       <c r="A250">
         <v>85525</v>
       </c>
@@ -30937,7 +30947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:36" hidden="1">
+    <row r="251" spans="1:36">
       <c r="A251">
         <v>85529</v>
       </c>
@@ -31057,7 +31067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:36" hidden="1">
+    <row r="252" spans="1:36">
       <c r="A252">
         <v>85531</v>
       </c>
@@ -31177,7 +31187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:36" hidden="1">
+    <row r="253" spans="1:36">
       <c r="A253">
         <v>85565</v>
       </c>
@@ -31297,7 +31307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:36" hidden="1">
+    <row r="254" spans="1:36">
       <c r="A254">
         <v>85582</v>
       </c>
@@ -31417,7 +31427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:36" hidden="1">
+    <row r="255" spans="1:36">
       <c r="A255">
         <v>85583</v>
       </c>
@@ -31537,7 +31547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:36" hidden="1">
+    <row r="256" spans="1:36">
       <c r="A256">
         <v>85598</v>
       </c>
@@ -31657,7 +31667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:36" hidden="1">
+    <row r="257" spans="1:36">
       <c r="A257">
         <v>85606</v>
       </c>
@@ -31777,7 +31787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:36" hidden="1">
+    <row r="258" spans="1:36">
       <c r="A258">
         <v>85627</v>
       </c>
@@ -31897,7 +31907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:36" hidden="1">
+    <row r="259" spans="1:36">
       <c r="A259">
         <v>85644</v>
       </c>
@@ -32017,7 +32027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:36" hidden="1">
+    <row r="260" spans="1:36">
       <c r="A260">
         <v>85659</v>
       </c>
@@ -32137,7 +32147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:36" hidden="1">
+    <row r="261" spans="1:36">
       <c r="A261">
         <v>85661</v>
       </c>
@@ -32257,7 +32267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:36" hidden="1">
+    <row r="262" spans="1:36">
       <c r="A262">
         <v>85667</v>
       </c>
@@ -32377,7 +32387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:36" hidden="1">
+    <row r="263" spans="1:36">
       <c r="A263">
         <v>85682</v>
       </c>
@@ -32497,7 +32507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:36" hidden="1">
+    <row r="264" spans="1:36">
       <c r="A264">
         <v>85685</v>
       </c>
@@ -32617,7 +32627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:36" hidden="1">
+    <row r="265" spans="1:36">
       <c r="A265">
         <v>85693</v>
       </c>
@@ -32737,7 +32747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:36" hidden="1">
+    <row r="266" spans="1:36">
       <c r="A266">
         <v>85698</v>
       </c>
@@ -32857,7 +32867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:36" hidden="1">
+    <row r="267" spans="1:36">
       <c r="A267">
         <v>85699</v>
       </c>
@@ -32977,7 +32987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:36" hidden="1">
+    <row r="268" spans="1:36">
       <c r="A268">
         <v>85708</v>
       </c>
@@ -33097,7 +33107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:36" hidden="1">
+    <row r="269" spans="1:36">
       <c r="A269">
         <v>85786</v>
       </c>
@@ -33217,7 +33227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:36" hidden="1">
+    <row r="270" spans="1:36">
       <c r="A270">
         <v>85790</v>
       </c>
@@ -33337,7 +33347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:36" hidden="1">
+    <row r="271" spans="1:36">
       <c r="A271">
         <v>85803</v>
       </c>
@@ -33457,7 +33467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:36" hidden="1">
+    <row r="272" spans="1:36">
       <c r="A272">
         <v>85809</v>
       </c>
@@ -33577,7 +33587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:36" hidden="1">
+    <row r="273" spans="1:36">
       <c r="A273">
         <v>85841</v>
       </c>
@@ -33697,7 +33707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:36" hidden="1">
+    <row r="274" spans="1:36">
       <c r="A274">
         <v>85842</v>
       </c>
@@ -33817,7 +33827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:36" hidden="1">
+    <row r="275" spans="1:36">
       <c r="A275">
         <v>85851</v>
       </c>
@@ -33937,7 +33947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:36" hidden="1">
+    <row r="276" spans="1:36">
       <c r="A276">
         <v>85900</v>
       </c>
@@ -34057,7 +34067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:36" hidden="1">
+    <row r="277" spans="1:36">
       <c r="A277">
         <v>85903</v>
       </c>
@@ -34177,7 +34187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:36" hidden="1">
+    <row r="278" spans="1:36">
       <c r="A278">
         <v>85906</v>
       </c>
@@ -34297,7 +34307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:36" hidden="1">
+    <row r="279" spans="1:36">
       <c r="A279">
         <v>85918</v>
       </c>
@@ -34417,7 +34427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:36" hidden="1">
+    <row r="280" spans="1:36">
       <c r="A280">
         <v>85920</v>
       </c>
@@ -34537,7 +34547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:36" hidden="1">
+    <row r="281" spans="1:36">
       <c r="A281">
         <v>85927</v>
       </c>
@@ -34657,7 +34667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:36" hidden="1">
+    <row r="282" spans="1:36">
       <c r="A282">
         <v>85944</v>
       </c>
@@ -34777,7 +34787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:36" hidden="1">
+    <row r="283" spans="1:36">
       <c r="A283">
         <v>85970</v>
       </c>
@@ -34897,7 +34907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:36" hidden="1">
+    <row r="284" spans="1:36">
       <c r="A284">
         <v>85988</v>
       </c>
@@ -35017,7 +35027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:36" hidden="1">
+    <row r="285" spans="1:36">
       <c r="A285">
         <v>85994</v>
       </c>
@@ -35137,7 +35147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:36" hidden="1">
+    <row r="286" spans="1:36">
       <c r="A286">
         <v>86011</v>
       </c>
@@ -35257,7 +35267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:36" hidden="1">
+    <row r="287" spans="1:36">
       <c r="A287">
         <v>86022</v>
       </c>
@@ -35377,7 +35387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:36" hidden="1">
+    <row r="288" spans="1:36">
       <c r="A288">
         <v>86059</v>
       </c>
@@ -35497,7 +35507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:36" hidden="1">
+    <row r="289" spans="1:36">
       <c r="A289">
         <v>86109</v>
       </c>
@@ -35617,7 +35627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:36" hidden="1">
+    <row r="290" spans="1:36">
       <c r="A290">
         <v>86110</v>
       </c>
@@ -35737,7 +35747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:36" hidden="1">
+    <row r="291" spans="1:36">
       <c r="A291">
         <v>86112</v>
       </c>
@@ -35857,7 +35867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:36" hidden="1">
+    <row r="292" spans="1:36">
       <c r="A292">
         <v>86138</v>
       </c>
@@ -35977,7 +35987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:36" hidden="1">
+    <row r="293" spans="1:36">
       <c r="A293">
         <v>86161</v>
       </c>
@@ -36097,7 +36107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:36" hidden="1">
+    <row r="294" spans="1:36">
       <c r="A294">
         <v>86194</v>
       </c>
@@ -36217,7 +36227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:36" hidden="1">
+    <row r="295" spans="1:36">
       <c r="A295">
         <v>86201</v>
       </c>
@@ -36337,7 +36347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:36" hidden="1">
+    <row r="296" spans="1:36">
       <c r="A296">
         <v>86216</v>
       </c>
@@ -36457,7 +36467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:36" hidden="1">
+    <row r="297" spans="1:36">
       <c r="A297">
         <v>86218</v>
       </c>
@@ -36577,7 +36587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:36" hidden="1">
+    <row r="298" spans="1:36">
       <c r="A298">
         <v>86240</v>
       </c>
@@ -36697,7 +36707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:36" hidden="1">
+    <row r="299" spans="1:36">
       <c r="A299">
         <v>86256</v>
       </c>
@@ -36817,7 +36827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:36" hidden="1">
+    <row r="300" spans="1:36">
       <c r="A300">
         <v>86261</v>
       </c>
@@ -36937,7 +36947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:36" hidden="1">
+    <row r="301" spans="1:36">
       <c r="A301">
         <v>86287</v>
       </c>
@@ -37057,7 +37067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:36" hidden="1">
+    <row r="302" spans="1:36">
       <c r="A302">
         <v>86288</v>
       </c>
@@ -37177,7 +37187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:36" hidden="1">
+    <row r="303" spans="1:36">
       <c r="A303">
         <v>86379</v>
       </c>
@@ -37297,7 +37307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:36" hidden="1">
+    <row r="304" spans="1:36">
       <c r="A304">
         <v>86389</v>
       </c>
@@ -37417,7 +37427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:36" hidden="1">
+    <row r="305" spans="1:36">
       <c r="A305">
         <v>86392</v>
       </c>
@@ -37537,7 +37547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:36" hidden="1">
+    <row r="306" spans="1:36">
       <c r="A306">
         <v>86403</v>
       </c>
@@ -37657,7 +37667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:36" hidden="1">
+    <row r="307" spans="1:36">
       <c r="A307">
         <v>86456</v>
       </c>
@@ -37777,7 +37787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:36" hidden="1">
+    <row r="308" spans="1:36">
       <c r="A308">
         <v>86470</v>
       </c>
@@ -37897,7 +37907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:36" hidden="1">
+    <row r="309" spans="1:36">
       <c r="A309">
         <v>86476</v>
       </c>
@@ -38017,7 +38027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:36" hidden="1">
+    <row r="310" spans="1:36">
       <c r="A310">
         <v>86480</v>
       </c>
@@ -38137,7 +38147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:36" hidden="1">
+    <row r="311" spans="1:36">
       <c r="A311">
         <v>86506</v>
       </c>
@@ -38257,7 +38267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:36" hidden="1">
+    <row r="312" spans="1:36">
       <c r="A312">
         <v>86510</v>
       </c>
@@ -38377,7 +38387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:36" hidden="1">
+    <row r="313" spans="1:36">
       <c r="A313">
         <v>86515</v>
       </c>
@@ -38497,7 +38507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:36" hidden="1">
+    <row r="314" spans="1:36">
       <c r="A314">
         <v>86533</v>
       </c>
@@ -38617,7 +38627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:36" hidden="1">
+    <row r="315" spans="1:36">
       <c r="A315">
         <v>86535</v>
       </c>
@@ -38737,7 +38747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:36" hidden="1">
+    <row r="316" spans="1:36">
       <c r="A316">
         <v>86598</v>
       </c>
@@ -38857,7 +38867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:36" hidden="1">
+    <row r="317" spans="1:36">
       <c r="A317">
         <v>86619</v>
       </c>
@@ -38977,7 +38987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:36" hidden="1">
+    <row r="318" spans="1:36">
       <c r="A318">
         <v>86642</v>
       </c>
@@ -39097,7 +39107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:36" hidden="1">
+    <row r="319" spans="1:36">
       <c r="A319">
         <v>86669</v>
       </c>
@@ -39217,7 +39227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:36" hidden="1">
+    <row r="320" spans="1:36">
       <c r="A320">
         <v>86677</v>
       </c>
@@ -39337,7 +39347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:36" hidden="1">
+    <row r="321" spans="1:36">
       <c r="A321">
         <v>86683</v>
       </c>
@@ -39457,7 +39467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:36" hidden="1">
+    <row r="322" spans="1:36">
       <c r="A322">
         <v>86717</v>
       </c>
@@ -39577,7 +39587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:36" hidden="1">
+    <row r="323" spans="1:36">
       <c r="A323">
         <v>86719</v>
       </c>
@@ -39697,7 +39707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:36" hidden="1">
+    <row r="324" spans="1:36">
       <c r="A324">
         <v>86722</v>
       </c>
@@ -39817,7 +39827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:36" hidden="1">
+    <row r="325" spans="1:36">
       <c r="A325">
         <v>86729</v>
       </c>
@@ -39937,7 +39947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:36" hidden="1">
+    <row r="326" spans="1:36">
       <c r="A326">
         <v>86754</v>
       </c>
@@ -40057,7 +40067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:36" hidden="1">
+    <row r="327" spans="1:36">
       <c r="A327">
         <v>86774</v>
       </c>
@@ -40177,7 +40187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:36" hidden="1">
+    <row r="328" spans="1:36">
       <c r="A328">
         <v>86855</v>
       </c>
@@ -40297,7 +40307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:36" hidden="1">
+    <row r="329" spans="1:36">
       <c r="A329">
         <v>86888</v>
       </c>
@@ -40417,7 +40427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:36" hidden="1">
+    <row r="330" spans="1:36">
       <c r="A330">
         <v>86892</v>
       </c>
@@ -40537,7 +40547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:36" hidden="1">
+    <row r="331" spans="1:36">
       <c r="A331">
         <v>86910</v>
       </c>
@@ -40657,7 +40667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:36" hidden="1">
+    <row r="332" spans="1:36">
       <c r="A332">
         <v>86922</v>
       </c>
@@ -40777,7 +40787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:36" hidden="1">
+    <row r="333" spans="1:36">
       <c r="A333">
         <v>86958</v>
       </c>
@@ -40897,7 +40907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:36" hidden="1">
+    <row r="334" spans="1:36">
       <c r="A334">
         <v>86971</v>
       </c>
@@ -41017,7 +41027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:36" hidden="1">
+    <row r="335" spans="1:36">
       <c r="A335">
         <v>86976</v>
       </c>
@@ -41137,7 +41147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:36" hidden="1">
+    <row r="336" spans="1:36">
       <c r="A336">
         <v>86978</v>
       </c>
@@ -41257,7 +41267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:36" hidden="1">
+    <row r="337" spans="1:36">
       <c r="A337">
         <v>86983</v>
       </c>
@@ -41377,7 +41387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:36" hidden="1">
+    <row r="338" spans="1:36">
       <c r="A338">
         <v>87002</v>
       </c>
@@ -41497,7 +41507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:36" hidden="1">
+    <row r="339" spans="1:36">
       <c r="A339">
         <v>87006</v>
       </c>
@@ -41617,7 +41627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:36" hidden="1">
+    <row r="340" spans="1:36">
       <c r="A340">
         <v>87030</v>
       </c>
@@ -41737,7 +41747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:36" hidden="1">
+    <row r="341" spans="1:36">
       <c r="A341">
         <v>87060</v>
       </c>
@@ -41857,7 +41867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:36" hidden="1">
+    <row r="342" spans="1:36">
       <c r="A342">
         <v>87069</v>
       </c>
@@ -41977,7 +41987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:36" hidden="1">
+    <row r="343" spans="1:36">
       <c r="A343">
         <v>87074</v>
       </c>
@@ -42097,7 +42107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:36" hidden="1">
+    <row r="344" spans="1:36">
       <c r="A344">
         <v>87125</v>
       </c>
@@ -42217,7 +42227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:36" hidden="1">
+    <row r="345" spans="1:36">
       <c r="A345">
         <v>87150</v>
       </c>
@@ -42337,7 +42347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:36" hidden="1">
+    <row r="346" spans="1:36">
       <c r="A346">
         <v>87155</v>
       </c>
@@ -42457,7 +42467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:36" hidden="1">
+    <row r="347" spans="1:36">
       <c r="A347">
         <v>87158</v>
       </c>
@@ -42577,7 +42587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:36" hidden="1">
+    <row r="348" spans="1:36">
       <c r="A348">
         <v>87172</v>
       </c>
@@ -42697,7 +42707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:36" hidden="1">
+    <row r="349" spans="1:36">
       <c r="A349">
         <v>87179</v>
       </c>
@@ -42817,7 +42827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:36" hidden="1">
+    <row r="350" spans="1:36">
       <c r="A350">
         <v>87181</v>
       </c>
@@ -42937,7 +42947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:36" hidden="1">
+    <row r="351" spans="1:36">
       <c r="A351">
         <v>87185</v>
       </c>
@@ -43057,7 +43067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:36" hidden="1">
+    <row r="352" spans="1:36">
       <c r="A352">
         <v>87208</v>
       </c>
@@ -43177,7 +43187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:36" hidden="1">
+    <row r="353" spans="1:36">
       <c r="A353">
         <v>87240</v>
       </c>
@@ -43297,7 +43307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="1:36" hidden="1">
+    <row r="354" spans="1:36">
       <c r="A354">
         <v>87243</v>
       </c>
@@ -43417,7 +43427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:36" hidden="1">
+    <row r="355" spans="1:36">
       <c r="A355">
         <v>87245</v>
       </c>
@@ -43537,7 +43547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="1:36" hidden="1">
+    <row r="356" spans="1:36">
       <c r="A356">
         <v>87265</v>
       </c>
@@ -43657,7 +43667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:36" hidden="1">
+    <row r="357" spans="1:36">
       <c r="A357">
         <v>87289</v>
       </c>
@@ -43777,7 +43787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:36" hidden="1">
+    <row r="358" spans="1:36">
       <c r="A358">
         <v>87295</v>
       </c>
@@ -43897,7 +43907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:36" hidden="1">
+    <row r="359" spans="1:36">
       <c r="A359">
         <v>87325</v>
       </c>
@@ -44017,7 +44027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:36" hidden="1">
+    <row r="360" spans="1:36">
       <c r="A360">
         <v>87345</v>
       </c>
@@ -44137,7 +44147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:36" hidden="1">
+    <row r="361" spans="1:36">
       <c r="A361">
         <v>87350</v>
       </c>
@@ -44257,7 +44267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="362" spans="1:36" hidden="1">
+    <row r="362" spans="1:36">
       <c r="A362">
         <v>87356</v>
       </c>
@@ -44377,7 +44387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="363" spans="1:36" hidden="1">
+    <row r="363" spans="1:36">
       <c r="A363">
         <v>87386</v>
       </c>
@@ -44497,7 +44507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="364" spans="1:36" hidden="1">
+    <row r="364" spans="1:36">
       <c r="A364">
         <v>87390</v>
       </c>
@@ -44617,7 +44627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="365" spans="1:36" hidden="1">
+    <row r="365" spans="1:36">
       <c r="A365">
         <v>87409</v>
       </c>
@@ -44737,7 +44747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="1:36" hidden="1">
+    <row r="366" spans="1:36">
       <c r="A366">
         <v>87424</v>
       </c>
@@ -44857,7 +44867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:36" hidden="1">
+    <row r="367" spans="1:36">
       <c r="A367">
         <v>87426</v>
       </c>
@@ -44977,7 +44987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:36" hidden="1">
+    <row r="368" spans="1:36">
       <c r="A368">
         <v>87430</v>
       </c>
@@ -45097,7 +45107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="369" spans="1:36" hidden="1">
+    <row r="369" spans="1:36">
       <c r="A369">
         <v>87443</v>
       </c>
@@ -45217,7 +45227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="370" spans="1:36" hidden="1">
+    <row r="370" spans="1:36">
       <c r="A370">
         <v>87478</v>
       </c>
@@ -45337,7 +45347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="371" spans="1:36" hidden="1">
+    <row r="371" spans="1:36">
       <c r="A371">
         <v>87493</v>
       </c>
@@ -45457,7 +45467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="372" spans="1:36" hidden="1">
+    <row r="372" spans="1:36">
       <c r="A372">
         <v>87514</v>
       </c>
@@ -45577,7 +45587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="373" spans="1:36" hidden="1">
+    <row r="373" spans="1:36">
       <c r="A373">
         <v>87531</v>
       </c>
@@ -45697,7 +45707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="374" spans="1:36" hidden="1">
+    <row r="374" spans="1:36">
       <c r="A374">
         <v>107842</v>
       </c>
@@ -45817,7 +45827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="375" spans="1:36" hidden="1">
+    <row r="375" spans="1:36">
       <c r="A375">
         <v>107848</v>
       </c>
@@ -45937,7 +45947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="376" spans="1:36" hidden="1">
+    <row r="376" spans="1:36">
       <c r="A376">
         <v>107873</v>
       </c>
@@ -46057,7 +46067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="377" spans="1:36" hidden="1">
+    <row r="377" spans="1:36">
       <c r="A377">
         <v>107879</v>
       </c>
@@ -46177,7 +46187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="378" spans="1:36" hidden="1">
+    <row r="378" spans="1:36">
       <c r="A378">
         <v>107905</v>
       </c>
@@ -46297,7 +46307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="379" spans="1:36" hidden="1">
+    <row r="379" spans="1:36">
       <c r="A379">
         <v>107946</v>
       </c>
@@ -46417,7 +46427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="1:36" hidden="1">
+    <row r="380" spans="1:36">
       <c r="A380">
         <v>107952</v>
       </c>
@@ -46537,7 +46547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="381" spans="1:36" hidden="1">
+    <row r="381" spans="1:36">
       <c r="A381">
         <v>107961</v>
       </c>
@@ -46657,7 +46667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="382" spans="1:36" hidden="1">
+    <row r="382" spans="1:36">
       <c r="A382">
         <v>107970</v>
       </c>
@@ -46777,7 +46787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="383" spans="1:36" hidden="1">
+    <row r="383" spans="1:36">
       <c r="A383">
         <v>107982</v>
       </c>
@@ -46897,7 +46907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="384" spans="1:36" hidden="1">
+    <row r="384" spans="1:36">
       <c r="A384">
         <v>107995</v>
       </c>
@@ -47017,7 +47027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="385" spans="1:36" hidden="1">
+    <row r="385" spans="1:36">
       <c r="A385">
         <v>108008</v>
       </c>
@@ -47137,7 +47147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="386" spans="1:36" hidden="1">
+    <row r="386" spans="1:36">
       <c r="A386">
         <v>108068</v>
       </c>
@@ -47257,7 +47267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="387" spans="1:36" hidden="1">
+    <row r="387" spans="1:36">
       <c r="A387">
         <v>108069</v>
       </c>
@@ -47377,7 +47387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="388" spans="1:36" hidden="1">
+    <row r="388" spans="1:36">
       <c r="A388">
         <v>108078</v>
       </c>
@@ -47497,7 +47507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="389" spans="1:36" hidden="1">
+    <row r="389" spans="1:36">
       <c r="A389">
         <v>108081</v>
       </c>
@@ -47617,7 +47627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="390" spans="1:36" hidden="1">
+    <row r="390" spans="1:36">
       <c r="A390">
         <v>108085</v>
       </c>
@@ -47737,7 +47747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="391" spans="1:36" hidden="1">
+    <row r="391" spans="1:36">
       <c r="A391">
         <v>108096</v>
       </c>
@@ -47857,7 +47867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="392" spans="1:36" hidden="1">
+    <row r="392" spans="1:36">
       <c r="A392">
         <v>108116</v>
       </c>
@@ -47977,7 +47987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="393" spans="1:36" hidden="1">
+    <row r="393" spans="1:36">
       <c r="A393">
         <v>108159</v>
       </c>
@@ -48097,7 +48107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="394" spans="1:36" hidden="1">
+    <row r="394" spans="1:36">
       <c r="A394">
         <v>108161</v>
       </c>
@@ -48217,7 +48227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="1:36" hidden="1">
+    <row r="395" spans="1:36">
       <c r="A395">
         <v>108169</v>
       </c>
@@ -48337,7 +48347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="396" spans="1:36" hidden="1">
+    <row r="396" spans="1:36">
       <c r="A396">
         <v>108170</v>
       </c>
@@ -48457,7 +48467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="397" spans="1:36" hidden="1">
+    <row r="397" spans="1:36">
       <c r="A397">
         <v>108181</v>
       </c>
@@ -48577,7 +48587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="1:36" hidden="1">
+    <row r="398" spans="1:36">
       <c r="A398">
         <v>108189</v>
       </c>
@@ -48697,7 +48707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="399" spans="1:36" hidden="1">
+    <row r="399" spans="1:36">
       <c r="A399">
         <v>108199</v>
       </c>
@@ -48817,7 +48827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="400" spans="1:36" hidden="1">
+    <row r="400" spans="1:36">
       <c r="A400">
         <v>108217</v>
       </c>
@@ -48937,7 +48947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="401" spans="1:36" hidden="1">
+    <row r="401" spans="1:36">
       <c r="A401">
         <v>108265</v>
       </c>
@@ -49057,7 +49067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="402" spans="1:36" hidden="1">
+    <row r="402" spans="1:36">
       <c r="A402">
         <v>108271</v>
       </c>
@@ -49177,7 +49187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="403" spans="1:36" hidden="1">
+    <row r="403" spans="1:36">
       <c r="A403">
         <v>108285</v>
       </c>
@@ -49297,7 +49307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="404" spans="1:36" hidden="1">
+    <row r="404" spans="1:36">
       <c r="A404">
         <v>108288</v>
       </c>
@@ -49417,7 +49427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="405" spans="1:36" hidden="1">
+    <row r="405" spans="1:36">
       <c r="A405">
         <v>108317</v>
       </c>
@@ -49537,7 +49547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="406" spans="1:36" hidden="1">
+    <row r="406" spans="1:36">
       <c r="A406">
         <v>108326</v>
       </c>
@@ -49657,7 +49667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="407" spans="1:36" hidden="1">
+    <row r="407" spans="1:36">
       <c r="A407">
         <v>108344</v>
       </c>
@@ -49777,7 +49787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="408" spans="1:36" hidden="1">
+    <row r="408" spans="1:36">
       <c r="A408">
         <v>108369</v>
       </c>
@@ -49897,7 +49907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="409" spans="1:36" hidden="1">
+    <row r="409" spans="1:36">
       <c r="A409">
         <v>108374</v>
       </c>
@@ -50017,7 +50027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="410" spans="1:36" hidden="1">
+    <row r="410" spans="1:36">
       <c r="A410">
         <v>108403</v>
       </c>
@@ -50137,7 +50147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="411" spans="1:36" hidden="1">
+    <row r="411" spans="1:36">
       <c r="A411">
         <v>108408</v>
       </c>
@@ -50257,7 +50267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="412" spans="1:36" hidden="1">
+    <row r="412" spans="1:36">
       <c r="A412">
         <v>108435</v>
       </c>
@@ -50377,7 +50387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="413" spans="1:36" hidden="1">
+    <row r="413" spans="1:36">
       <c r="A413">
         <v>108438</v>
       </c>
@@ -50497,7 +50507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="414" spans="1:36" hidden="1">
+    <row r="414" spans="1:36">
       <c r="A414">
         <v>108467</v>
       </c>
@@ -50617,7 +50627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="415" spans="1:36" hidden="1">
+    <row r="415" spans="1:36">
       <c r="A415">
         <v>108473</v>
       </c>
@@ -50737,7 +50747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="416" spans="1:36" hidden="1">
+    <row r="416" spans="1:36">
       <c r="A416">
         <v>108489</v>
       </c>
@@ -50857,7 +50867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="417" spans="1:36" hidden="1">
+    <row r="417" spans="1:36">
       <c r="A417">
         <v>108492</v>
       </c>
@@ -50977,7 +50987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="418" spans="1:36" hidden="1">
+    <row r="418" spans="1:36">
       <c r="A418">
         <v>108501</v>
       </c>
@@ -51097,7 +51107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="419" spans="1:36" hidden="1">
+    <row r="419" spans="1:36">
       <c r="A419">
         <v>108537</v>
       </c>
@@ -51217,7 +51227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="420" spans="1:36" hidden="1">
+    <row r="420" spans="1:36">
       <c r="A420">
         <v>108551</v>
       </c>
@@ -51337,7 +51347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="421" spans="1:36" hidden="1">
+    <row r="421" spans="1:36">
       <c r="A421">
         <v>108569</v>
       </c>
@@ -51457,7 +51467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="422" spans="1:36" hidden="1">
+    <row r="422" spans="1:36">
       <c r="A422">
         <v>108583</v>
       </c>
@@ -51577,7 +51587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="423" spans="1:36" hidden="1">
+    <row r="423" spans="1:36">
       <c r="A423">
         <v>108601</v>
       </c>
@@ -51697,7 +51707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="424" spans="1:36" hidden="1">
+    <row r="424" spans="1:36">
       <c r="A424">
         <v>108611</v>
       </c>
@@ -51817,7 +51827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="425" spans="1:36" hidden="1">
+    <row r="425" spans="1:36">
       <c r="A425">
         <v>108619</v>
       </c>
@@ -51937,7 +51947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="426" spans="1:36" hidden="1">
+    <row r="426" spans="1:36">
       <c r="A426">
         <v>108620</v>
       </c>
@@ -52057,7 +52067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="427" spans="1:36" hidden="1">
+    <row r="427" spans="1:36">
       <c r="A427">
         <v>108654</v>
       </c>
@@ -52177,7 +52187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="428" spans="1:36" hidden="1">
+    <row r="428" spans="1:36">
       <c r="A428">
         <v>108661</v>
       </c>
@@ -52297,7 +52307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="429" spans="1:36" hidden="1">
+    <row r="429" spans="1:36">
       <c r="A429">
         <v>108680</v>
       </c>
@@ -52417,7 +52427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="430" spans="1:36" hidden="1">
+    <row r="430" spans="1:36">
       <c r="A430">
         <v>108692</v>
       </c>
@@ -52537,7 +52547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="431" spans="1:36" hidden="1">
+    <row r="431" spans="1:36">
       <c r="A431">
         <v>108700</v>
       </c>
@@ -52657,7 +52667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="432" spans="1:36" hidden="1">
+    <row r="432" spans="1:36">
       <c r="A432">
         <v>108701</v>
       </c>
@@ -52777,7 +52787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="433" spans="1:36" hidden="1">
+    <row r="433" spans="1:36">
       <c r="A433">
         <v>108742</v>
       </c>
@@ -52897,7 +52907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="434" spans="1:36" hidden="1">
+    <row r="434" spans="1:36">
       <c r="A434">
         <v>108791</v>
       </c>
@@ -53017,7 +53027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="435" spans="1:36" hidden="1">
+    <row r="435" spans="1:36">
       <c r="A435">
         <v>108803</v>
       </c>
@@ -53137,7 +53147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="436" spans="1:36" hidden="1">
+    <row r="436" spans="1:36">
       <c r="A436">
         <v>108805</v>
       </c>
@@ -53257,7 +53267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="437" spans="1:36" hidden="1">
+    <row r="437" spans="1:36">
       <c r="A437">
         <v>108810</v>
       </c>
@@ -53377,7 +53387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="438" spans="1:36" hidden="1">
+    <row r="438" spans="1:36">
       <c r="A438">
         <v>108829</v>
       </c>
@@ -53497,7 +53507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="439" spans="1:36" hidden="1">
+    <row r="439" spans="1:36">
       <c r="A439">
         <v>108912</v>
       </c>
@@ -53617,7 +53627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="440" spans="1:36" hidden="1">
+    <row r="440" spans="1:36">
       <c r="A440">
         <v>108914</v>
       </c>
@@ -53737,7 +53747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="441" spans="1:36" hidden="1">
+    <row r="441" spans="1:36">
       <c r="A441">
         <v>108937</v>
       </c>
@@ -53857,7 +53867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="442" spans="1:36" hidden="1">
+    <row r="442" spans="1:36">
       <c r="A442">
         <v>108965</v>
       </c>
@@ -53977,7 +53987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="443" spans="1:36" hidden="1">
+    <row r="443" spans="1:36">
       <c r="A443">
         <v>109025</v>
       </c>
@@ -54097,7 +54107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="444" spans="1:36" hidden="1">
+    <row r="444" spans="1:36">
       <c r="A444">
         <v>109034</v>
       </c>
@@ -54217,7 +54227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="445" spans="1:36" hidden="1">
+    <row r="445" spans="1:36">
       <c r="A445">
         <v>109043</v>
       </c>
@@ -54337,7 +54347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="446" spans="1:36" hidden="1">
+    <row r="446" spans="1:36">
       <c r="A446">
         <v>109068</v>
       </c>
@@ -54457,7 +54467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="447" spans="1:36" hidden="1">
+    <row r="447" spans="1:36">
       <c r="A447">
         <v>109093</v>
       </c>
@@ -54577,7 +54587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="448" spans="1:36" hidden="1">
+    <row r="448" spans="1:36">
       <c r="A448">
         <v>109154</v>
       </c>
@@ -54697,7 +54707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="449" spans="1:36" hidden="1">
+    <row r="449" spans="1:36">
       <c r="A449">
         <v>109173</v>
       </c>
@@ -54817,7 +54827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="450" spans="1:36" hidden="1">
+    <row r="450" spans="1:36">
       <c r="A450">
         <v>109191</v>
       </c>
@@ -54937,7 +54947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="451" spans="1:36" hidden="1">
+    <row r="451" spans="1:36">
       <c r="A451">
         <v>109245</v>
       </c>
@@ -55057,7 +55067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="452" spans="1:36" hidden="1">
+    <row r="452" spans="1:36">
       <c r="A452">
         <v>109262</v>
       </c>
@@ -55177,7 +55187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="453" spans="1:36" hidden="1">
+    <row r="453" spans="1:36">
       <c r="A453">
         <v>109289</v>
       </c>
@@ -55297,7 +55307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="454" spans="1:36" hidden="1">
+    <row r="454" spans="1:36">
       <c r="A454">
         <v>109290</v>
       </c>
@@ -55417,7 +55427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="455" spans="1:36" hidden="1">
+    <row r="455" spans="1:36">
       <c r="A455">
         <v>109291</v>
       </c>
@@ -55537,7 +55547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="456" spans="1:36" hidden="1">
+    <row r="456" spans="1:36">
       <c r="A456">
         <v>109318</v>
       </c>
@@ -55657,7 +55667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="457" spans="1:36" hidden="1">
+    <row r="457" spans="1:36">
       <c r="A457">
         <v>109349</v>
       </c>
@@ -55777,7 +55787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="458" spans="1:36" hidden="1">
+    <row r="458" spans="1:36">
       <c r="A458">
         <v>109370</v>
       </c>
@@ -55897,7 +55907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="459" spans="1:36" hidden="1">
+    <row r="459" spans="1:36">
       <c r="A459">
         <v>109375</v>
       </c>
@@ -56017,7 +56027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="460" spans="1:36" hidden="1">
+    <row r="460" spans="1:36">
       <c r="A460">
         <v>109376</v>
       </c>
@@ -56137,7 +56147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="461" spans="1:36" hidden="1">
+    <row r="461" spans="1:36">
       <c r="A461">
         <v>109378</v>
       </c>
@@ -56257,7 +56267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="462" spans="1:36" hidden="1">
+    <row r="462" spans="1:36">
       <c r="A462">
         <v>109381</v>
       </c>
@@ -56377,7 +56387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="463" spans="1:36" hidden="1">
+    <row r="463" spans="1:36">
       <c r="A463">
         <v>109390</v>
       </c>
@@ -56497,7 +56507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="464" spans="1:36" hidden="1">
+    <row r="464" spans="1:36">
       <c r="A464">
         <v>109412</v>
       </c>
@@ -56617,7 +56627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="465" spans="1:36" hidden="1">
+    <row r="465" spans="1:36">
       <c r="A465">
         <v>109438</v>
       </c>
@@ -56738,13 +56748,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN465">
-    <filterColumn colId="35">
-      <filters>
-        <filter val="Verificar Manualmente"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:AN465"/>
   <mergeCells count="1">
     <mergeCell ref="AL9:AN9"/>
   </mergeCells>
